--- a/Proyectos/Proyecto2/Iskandar.xlsx
+++ b/Proyectos/Proyecto2/Iskandar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pacos\Desktop\USAC\REPOS\REDES2_1S2025_G15\Proyectos\Proyecto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263D13EF-2781-4AB3-8CD8-BA789F2CEADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9667B6BE-ED1F-4A38-8FBD-C106444F7B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9AA9D1F8-F817-4A9B-9717-A56CCA6FC63B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>UTILIZADAS</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>192.168.22.83</t>
+  </si>
+  <si>
+    <t>192.168.22.84</t>
+  </si>
+  <si>
+    <t>192.168.22.85</t>
+  </si>
+  <si>
+    <t>192.168.22.86</t>
+  </si>
+  <si>
+    <t>192.168.22.87</t>
   </si>
 </sst>
 </file>
@@ -707,7 +719,7 @@
   <dimension ref="A19:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,6 +944,27 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
